--- a/BOM/BOM_refactored.xlsx
+++ b/BOM/BOM_refactored.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Studia\DigitalOscilloscope_Hardware\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B7D871-BD4B-49CD-8B30-958F23CC90C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E215B79-468D-4CA9-A7A8-CCA78A2A1CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">DigitalOsciloscope!$A$1:$H$71</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">DigitalOsciloscope!$A$1:$K$71</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="197">
   <si>
     <t>Reference</t>
   </si>
@@ -453,9 +453,6 @@
     <t>U2,U15,U18</t>
   </si>
   <si>
-    <t>AP1117-ADJ</t>
-  </si>
-  <si>
     <t>Package_TO_SOT_SMD:SOT-223-3_TabPin2</t>
   </si>
   <si>
@@ -556,13 +553,91 @@
   </si>
   <si>
     <t>https://www.renesas.com/us/en/document/dst/xl-family-low-phase-noise-quartz-based-pll-oscillators-datasheet</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Do kupienia</t>
+  </si>
+  <si>
+    <t>Na stanie</t>
+  </si>
+  <si>
+    <t>Cena</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/Renesas-Electronics/XLL735080.000000I?qs=itIaUkCn8qB2EvKsq%252Bqv2Q%3D%3D&amp;srsltid=AfmBOopUICQ7Um6x5xTJ3tj7jo3ApYCAj38yQl-cZCs_xtAIURgjoosR</t>
+  </si>
+  <si>
+    <t>Opis</t>
+  </si>
+  <si>
+    <t>Oscylator</t>
+  </si>
+  <si>
+    <t>ADC</t>
+  </si>
+  <si>
+    <t>Komparator, SOIC-8</t>
+  </si>
+  <si>
+    <t>https://eu.mouser.com/ProductDetail/Texas-Instruments/OPA2277MDTEP?qs=bjKSiFBd6qm8ryeDu2ltUQ%3D%3D&amp;utm_id=22436684815&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_marketing_tactic=emeacorp&amp;gad_source=1&amp;gad_campaignid=22426729329&amp;gbraid=0AAAAADn_wf153vZWvo_kngdRS3sU_b4Lf&amp;gclid=Cj0KCQjwsPzHBhDCARIsALlWNG3UhGC_JkRyvBL3_Giv_3ZrCtS8mk0yRm4JBo-I3U-9-CINgakXl-UaAncSEALw_wcB</t>
+  </si>
+  <si>
+    <t>https://www.mouser.pl/ProductDetail/Texas-Instruments/DAC61408RHAT?qs=u16ybLDytRb7WubC1tnMxg%3D%3D</t>
+  </si>
+  <si>
+    <t>148,61 * 1</t>
+  </si>
+  <si>
+    <t>68.16 * 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16.77 € * 1</t>
+  </si>
+  <si>
+    <t>Symteryzujący, SOIC-8</t>
+  </si>
+  <si>
+    <t>FET, SOIC-8</t>
+  </si>
+  <si>
+    <t>VGA, LFCSP-8 ????</t>
+  </si>
+  <si>
+    <t>OP AMP pomiędzy DAC a bufforem napięciowym, na jaki podmienić??????</t>
+  </si>
+  <si>
+    <t>DAC, 12, czy 16 bitowy??</t>
+  </si>
+  <si>
+    <t>Do kupienia i zmiany na schemacie</t>
+  </si>
+  <si>
+    <t>https://www.mouser.pl/ProductDetail/Diodes-Incorporated/AZ1117H-ADJTRG1?qs=5V6w%252Be2aIqYdEPQwBDvt2A%3D%3D</t>
+  </si>
+  <si>
+    <t>LDO, SOT-223-3</t>
+  </si>
+  <si>
+    <t>AZ1117-ADJ</t>
+  </si>
+  <si>
+    <t>10 * 2,40 zł</t>
+  </si>
+  <si>
+    <t>regulowane LDO, ujemne napięcia, zmiana na TPS7A33????</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="#,##0.00\ [$€-1];[Red]\-#,##0.00\ [$€-1]"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -570,13 +645,58 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -588,17 +708,61 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -635,9 +799,12 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{A4FF5C12-56F6-49BA-8D9A-871835FD1EE5}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="9">
-    <queryTableFields count="8">
+  <queryTableRefresh nextId="12">
+    <queryTableFields count="11">
       <queryTableField id="1" name="Reference" tableColumnId="1"/>
+      <queryTableField id="10" dataBound="0" tableColumnId="10"/>
+      <queryTableField id="9" dataBound="0" tableColumnId="9"/>
+      <queryTableField id="11" dataBound="0" tableColumnId="11"/>
       <queryTableField id="2" name="Qty" tableColumnId="2"/>
       <queryTableField id="3" name="Value" tableColumnId="3"/>
       <queryTableField id="4" name="DNP" tableColumnId="4"/>
@@ -651,17 +818,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{362228C5-BAB1-486E-8560-A52D8EC74B69}" name="DigitalOsciloscope" displayName="DigitalOsciloscope" ref="A1:H71" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:H71" xr:uid="{362228C5-BAB1-486E-8560-A52D8EC74B69}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{895AF95E-57EF-4716-81BB-FFA0A60CE7FE}" uniqueName="1" name="Reference" queryTableFieldId="1" dataDxfId="6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{362228C5-BAB1-486E-8560-A52D8EC74B69}" name="DigitalOsciloscope" displayName="DigitalOsciloscope" ref="A1:K71" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:K71" xr:uid="{362228C5-BAB1-486E-8560-A52D8EC74B69}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="U1,U8"/>
+        <filter val="U10"/>
+        <filter val="U11,U14"/>
+        <filter val="U12,U13"/>
+        <filter val="U17"/>
+        <filter val="U2,U15,U18"/>
+        <filter val="U21"/>
+        <filter val="U3,U5"/>
+        <filter val="U4,U6"/>
+        <filter val="U7"/>
+        <filter val="U9"/>
+        <filter val="Y1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{895AF95E-57EF-4716-81BB-FFA0A60CE7FE}" uniqueName="1" name="Reference" queryTableFieldId="1" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{7B4A2384-287A-423C-B4A3-72796204BA48}" uniqueName="10" name="Status" queryTableFieldId="10" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{E77EE9A9-5B74-4C16-A436-DE652704439C}" uniqueName="9" name="Cena" queryTableFieldId="9"/>
+    <tableColumn id="11" xr3:uid="{EF94E962-25A2-415E-AD03-E1BB411F6326}" uniqueName="11" name="Opis" queryTableFieldId="11" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{73CB6CE8-9C4C-4350-834D-B34D6786CE5C}" uniqueName="2" name="Qty" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{53AAED2D-870E-444F-8695-BBB1C82C4017}" uniqueName="3" name="Value" queryTableFieldId="3" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{6CE2139F-1ADC-41F9-8AD4-160A15E1F7C3}" uniqueName="4" name="DNP" queryTableFieldId="4" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{9433ECD1-27CD-4FE9-8DA2-A7AF36F74F0E}" uniqueName="5" name="Exclude from BOM" queryTableFieldId="5" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{43047F08-21C9-4334-B5AE-82D86D36403C}" uniqueName="6" name="Exclude from Board" queryTableFieldId="6" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{B316D388-8BAD-40A0-9634-990B00EE5969}" uniqueName="7" name="Footprint" queryTableFieldId="7" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{4778B31F-F2CC-447A-BED4-E4997545F1E5}" uniqueName="8" name="Datasheet" queryTableFieldId="8" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{53AAED2D-870E-444F-8695-BBB1C82C4017}" uniqueName="3" name="Value" queryTableFieldId="3" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{6CE2139F-1ADC-41F9-8AD4-160A15E1F7C3}" uniqueName="4" name="DNP" queryTableFieldId="4" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{9433ECD1-27CD-4FE9-8DA2-A7AF36F74F0E}" uniqueName="5" name="Exclude from BOM" queryTableFieldId="5" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{43047F08-21C9-4334-B5AE-82D86D36403C}" uniqueName="6" name="Exclude from Board" queryTableFieldId="6" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{B316D388-8BAD-40A0-9634-990B00EE5969}" uniqueName="7" name="Footprint" queryTableFieldId="7" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{4778B31F-F2CC-447A-BED4-E4997545F1E5}" uniqueName="8" name="Datasheet" queryTableFieldId="8" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -930,1872 +1117,2013 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6505B4-911D-4A1A-A1D9-575839D5C737}">
-  <dimension ref="A1:H71"/>
+  <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="F71" sqref="F71"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="57.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="80.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" customWidth="1"/>
+    <col min="4" max="4" width="26.21875" customWidth="1"/>
+    <col min="5" max="6" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="57.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="80.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
+      <c r="E2">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
+      <c r="E3">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="K3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4">
+      <c r="E4">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="F4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="K4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="B5">
+      <c r="E5">
         <v>2</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="K5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>19</v>
       </c>
-      <c r="B6">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="E6">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="K6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>20</v>
       </c>
-      <c r="B7">
+      <c r="E7">
         <v>2</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="F7" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="K7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B8">
+      <c r="E8">
         <v>2</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="F8" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="K8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="B9">
+      <c r="E9">
         <v>2</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="F9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="K9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B10">
+      <c r="E10">
         <v>32</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="F10" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="K10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>28</v>
       </c>
-      <c r="B11">
+      <c r="E11">
         <v>4</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="F11" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="K11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>30</v>
       </c>
-      <c r="B12">
+      <c r="E12">
         <v>6</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="F12" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="K12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>32</v>
       </c>
-      <c r="B13">
+      <c r="E13">
         <v>26</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="F13" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="K13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>34</v>
       </c>
-      <c r="B14">
+      <c r="E14">
         <v>2</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="F14" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="K14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>36</v>
       </c>
-      <c r="B15">
+      <c r="E15">
         <v>37</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="F15" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="K15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>38</v>
       </c>
-      <c r="B16">
+      <c r="E16">
         <v>4</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="F16" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="K16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>40</v>
       </c>
-      <c r="B17">
+      <c r="E17">
         <v>1</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="F17" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="K17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>42</v>
       </c>
-      <c r="B18">
+      <c r="E18">
         <v>1</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="F18" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="K18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>44</v>
       </c>
-      <c r="B19">
+      <c r="E19">
         <v>1</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="F19" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" t="s">
         <v>11</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="K19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>46</v>
       </c>
-      <c r="B20">
+      <c r="E20">
         <v>2</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="F20" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J20" t="s">
         <v>48</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="K20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>50</v>
       </c>
-      <c r="B21">
+      <c r="E21">
         <v>8</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="F21" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" t="s">
         <v>52</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="K21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>53</v>
       </c>
-      <c r="B22">
+      <c r="E22">
         <v>9</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="F22" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" t="s">
         <v>55</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="K22" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>57</v>
       </c>
-      <c r="B23">
+      <c r="E23">
         <v>2</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="F23" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" t="s">
+        <v>10</v>
+      </c>
+      <c r="J23" t="s">
         <v>59</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="K23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>60</v>
       </c>
-      <c r="B24">
+      <c r="E24">
         <v>1</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="F24" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="G24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" t="s">
+        <v>10</v>
+      </c>
+      <c r="J24" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>62</v>
       </c>
-      <c r="B25">
+      <c r="E25">
         <v>1</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="F25" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="G25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" t="s">
+        <v>10</v>
+      </c>
+      <c r="J25" t="s">
+        <v>10</v>
+      </c>
+      <c r="K25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>64</v>
       </c>
-      <c r="B26">
+      <c r="E26">
         <v>2</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="F26" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="G26" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" t="s">
+        <v>10</v>
+      </c>
+      <c r="J26" t="s">
+        <v>10</v>
+      </c>
+      <c r="K26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>66</v>
       </c>
-      <c r="B27">
+      <c r="E27">
         <v>1</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="F27" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" t="s">
+        <v>10</v>
+      </c>
+      <c r="J27" t="s">
+        <v>10</v>
+      </c>
+      <c r="K27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="1"/>
+      <c r="E28">
         <v>5</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="F28" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" t="s">
+        <v>10</v>
+      </c>
+      <c r="J28" t="s">
         <v>69</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="K28" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="1"/>
+      <c r="E29">
         <v>29</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="F29" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" t="s">
+        <v>10</v>
+      </c>
+      <c r="J29" t="s">
+        <v>10</v>
+      </c>
+      <c r="K29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="1"/>
+      <c r="E30">
         <v>29</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="F30" t="s">
         <v>73</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G30" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30" t="s">
+        <v>10</v>
+      </c>
+      <c r="J30" t="s">
+        <v>10</v>
+      </c>
+      <c r="K30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="1"/>
+      <c r="E31">
         <v>9</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="F31" t="s">
         <v>75</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H31" s="1" t="s">
+      <c r="G31" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31" t="s">
+        <v>10</v>
+      </c>
+      <c r="J31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K31" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="230.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="1"/>
+      <c r="E32">
         <v>43</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="F32" t="s">
         <v>78</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" t="s">
+        <v>10</v>
+      </c>
+      <c r="J32" t="s">
         <v>79</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="1"/>
+      <c r="E33">
         <v>4</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="F33" t="s">
         <v>81</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33" t="s">
+        <v>10</v>
+      </c>
+      <c r="J33" t="s">
         <v>79</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="1"/>
+      <c r="E34">
         <v>8</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="F34" t="s">
         <v>83</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34" t="s">
+        <v>10</v>
+      </c>
+      <c r="I34" t="s">
+        <v>10</v>
+      </c>
+      <c r="J34" t="s">
         <v>79</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="1"/>
+      <c r="E35">
         <v>8</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="F35" t="s">
         <v>85</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G35" s="1" t="s">
+      <c r="G35" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35" t="s">
+        <v>10</v>
+      </c>
+      <c r="I35" t="s">
+        <v>10</v>
+      </c>
+      <c r="J35" t="s">
         <v>79</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="1"/>
+      <c r="E36">
         <v>2</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="F36" t="s">
         <v>87</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" s="1" t="s">
+      <c r="G36" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" t="s">
+        <v>10</v>
+      </c>
+      <c r="J36" t="s">
         <v>79</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="1"/>
+      <c r="E37">
         <v>2</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="F37" t="s">
         <v>89</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G37" s="1" t="s">
+      <c r="G37" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37" t="s">
+        <v>10</v>
+      </c>
+      <c r="I37" t="s">
+        <v>10</v>
+      </c>
+      <c r="J37" t="s">
         <v>79</v>
       </c>
-      <c r="H37" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="1"/>
+      <c r="E38">
         <v>2</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="F38" t="s">
         <v>91</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G38" s="1" t="s">
+      <c r="G38" t="s">
+        <v>10</v>
+      </c>
+      <c r="H38" t="s">
+        <v>10</v>
+      </c>
+      <c r="I38" t="s">
+        <v>10</v>
+      </c>
+      <c r="J38" t="s">
         <v>79</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="1"/>
+      <c r="E39">
         <v>2</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="F39" t="s">
         <v>93</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G39" s="1" t="s">
+      <c r="G39" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39" t="s">
+        <v>10</v>
+      </c>
+      <c r="I39" t="s">
+        <v>10</v>
+      </c>
+      <c r="J39" t="s">
         <v>79</v>
       </c>
-      <c r="H39" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="1"/>
+      <c r="E40">
         <v>17</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="F40" t="s">
         <v>95</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G40" s="1" t="s">
+      <c r="G40" t="s">
+        <v>10</v>
+      </c>
+      <c r="H40" t="s">
+        <v>10</v>
+      </c>
+      <c r="I40" t="s">
+        <v>10</v>
+      </c>
+      <c r="J40" t="s">
         <v>79</v>
       </c>
-      <c r="H40" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="1"/>
+      <c r="E41">
         <v>4</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="F41" t="s">
         <v>97</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G41" s="1" t="s">
+      <c r="G41" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" t="s">
+        <v>10</v>
+      </c>
+      <c r="I41" t="s">
+        <v>10</v>
+      </c>
+      <c r="J41" t="s">
         <v>79</v>
       </c>
-      <c r="H41" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="1"/>
+      <c r="E42">
         <v>4</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="F42" t="s">
         <v>99</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G42" s="1" t="s">
+      <c r="G42" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" t="s">
+        <v>10</v>
+      </c>
+      <c r="I42" t="s">
+        <v>10</v>
+      </c>
+      <c r="J42" t="s">
         <v>79</v>
       </c>
-      <c r="H42" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="1"/>
+      <c r="E43">
         <v>2</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="F43" t="s">
         <v>101</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G43" s="1" t="s">
+      <c r="G43" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43" t="s">
+        <v>10</v>
+      </c>
+      <c r="I43" t="s">
+        <v>10</v>
+      </c>
+      <c r="J43" t="s">
         <v>79</v>
       </c>
-      <c r="H43" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="1"/>
+      <c r="E44">
         <v>2</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="F44" t="s">
         <v>103</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G44" s="1" t="s">
+      <c r="G44" t="s">
+        <v>10</v>
+      </c>
+      <c r="H44" t="s">
+        <v>10</v>
+      </c>
+      <c r="I44" t="s">
+        <v>10</v>
+      </c>
+      <c r="J44" t="s">
         <v>79</v>
       </c>
-      <c r="H44" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B45">
-        <v>10</v>
-      </c>
-      <c r="C45" s="1" t="s">
+      <c r="B45" s="1"/>
+      <c r="E45">
+        <v>10</v>
+      </c>
+      <c r="F45" t="s">
         <v>3</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G45" s="1" t="s">
+      <c r="G45" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45" t="s">
+        <v>10</v>
+      </c>
+      <c r="I45" t="s">
+        <v>10</v>
+      </c>
+      <c r="J45" t="s">
         <v>79</v>
       </c>
-      <c r="H45" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="1"/>
+      <c r="E46">
         <v>5</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="F46" t="s">
         <v>106</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G46" s="1" t="s">
+      <c r="G46" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" t="s">
+        <v>10</v>
+      </c>
+      <c r="I46" t="s">
+        <v>10</v>
+      </c>
+      <c r="J46" t="s">
         <v>79</v>
       </c>
-      <c r="H46" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="1"/>
+      <c r="E47">
         <v>1</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="F47" t="s">
         <v>108</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G47" s="1" t="s">
+      <c r="G47" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" t="s">
+        <v>10</v>
+      </c>
+      <c r="I47" t="s">
+        <v>10</v>
+      </c>
+      <c r="J47" t="s">
         <v>79</v>
       </c>
-      <c r="H47" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="1"/>
+      <c r="E48">
         <v>2</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="F48" t="s">
         <v>110</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G48" s="1" t="s">
+      <c r="G48" t="s">
+        <v>10</v>
+      </c>
+      <c r="H48" t="s">
+        <v>10</v>
+      </c>
+      <c r="I48" t="s">
+        <v>10</v>
+      </c>
+      <c r="J48" t="s">
         <v>79</v>
       </c>
-      <c r="H48" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="1"/>
+      <c r="E49">
         <v>1</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="F49" t="s">
         <v>112</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G49" s="1" t="s">
+      <c r="G49" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49" t="s">
+        <v>10</v>
+      </c>
+      <c r="I49" t="s">
+        <v>10</v>
+      </c>
+      <c r="J49" t="s">
         <v>79</v>
       </c>
-      <c r="H49" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="1"/>
+      <c r="E50">
         <v>3</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="F50" t="s">
         <v>114</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G50" s="1" t="s">
+      <c r="G50" t="s">
+        <v>10</v>
+      </c>
+      <c r="H50" t="s">
+        <v>10</v>
+      </c>
+      <c r="I50" t="s">
+        <v>10</v>
+      </c>
+      <c r="J50" t="s">
         <v>79</v>
       </c>
-      <c r="H50" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="1"/>
+      <c r="E51">
         <v>9</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="F51" t="s">
         <v>116</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G51" s="1" t="s">
+      <c r="G51" t="s">
+        <v>10</v>
+      </c>
+      <c r="H51" t="s">
+        <v>10</v>
+      </c>
+      <c r="I51" t="s">
+        <v>10</v>
+      </c>
+      <c r="J51" t="s">
         <v>79</v>
       </c>
-      <c r="H51" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K51" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="1"/>
+      <c r="E52">
         <v>1</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="F52" t="s">
         <v>118</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G52" s="1" t="s">
+      <c r="G52" t="s">
+        <v>10</v>
+      </c>
+      <c r="H52" t="s">
+        <v>10</v>
+      </c>
+      <c r="I52" t="s">
+        <v>10</v>
+      </c>
+      <c r="J52" t="s">
         <v>79</v>
       </c>
-      <c r="H52" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="1"/>
+      <c r="E53">
         <v>1</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="F53" t="s">
         <v>120</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G53" s="1" t="s">
+      <c r="G53" t="s">
+        <v>10</v>
+      </c>
+      <c r="H53" t="s">
+        <v>10</v>
+      </c>
+      <c r="I53" t="s">
+        <v>10</v>
+      </c>
+      <c r="J53" t="s">
         <v>79</v>
       </c>
-      <c r="H53" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K53" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="230.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="1"/>
+      <c r="E54">
         <v>38</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="F54" t="s">
         <v>122</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G54" s="1" t="s">
+      <c r="G54" t="s">
+        <v>10</v>
+      </c>
+      <c r="H54" t="s">
+        <v>10</v>
+      </c>
+      <c r="I54" t="s">
+        <v>10</v>
+      </c>
+      <c r="J54" t="s">
         <v>79</v>
       </c>
-      <c r="H54" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="1"/>
+      <c r="E55">
         <v>2</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="F55" t="s">
         <v>124</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G55" s="1" t="s">
+      <c r="G55" t="s">
+        <v>10</v>
+      </c>
+      <c r="H55" t="s">
+        <v>10</v>
+      </c>
+      <c r="I55" t="s">
+        <v>10</v>
+      </c>
+      <c r="J55" t="s">
         <v>79</v>
       </c>
-      <c r="H55" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="1"/>
+      <c r="E56">
         <v>1</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="F56" t="s">
         <v>126</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G56" s="1" t="s">
+      <c r="G56" t="s">
+        <v>10</v>
+      </c>
+      <c r="H56" t="s">
+        <v>10</v>
+      </c>
+      <c r="I56" t="s">
+        <v>10</v>
+      </c>
+      <c r="J56" t="s">
         <v>79</v>
       </c>
-      <c r="H56" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="1"/>
+      <c r="E57">
         <v>1</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="F57" t="s">
         <v>128</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G57" s="1" t="s">
+      <c r="G57" t="s">
+        <v>10</v>
+      </c>
+      <c r="H57" t="s">
+        <v>10</v>
+      </c>
+      <c r="I57" t="s">
+        <v>10</v>
+      </c>
+      <c r="J57" t="s">
         <v>79</v>
       </c>
-      <c r="H57" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K57" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="1"/>
+      <c r="E58">
         <v>2</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="F58" t="s">
         <v>130</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G58" s="1" t="s">
+      <c r="G58" t="s">
+        <v>10</v>
+      </c>
+      <c r="H58" t="s">
+        <v>10</v>
+      </c>
+      <c r="I58" t="s">
+        <v>10</v>
+      </c>
+      <c r="J58" t="s">
         <v>79</v>
       </c>
-      <c r="H58" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K58" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="1"/>
+      <c r="E59">
         <v>27</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="F59" t="s">
         <v>132</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G59" s="1" t="s">
+      <c r="G59" t="s">
+        <v>10</v>
+      </c>
+      <c r="H59" t="s">
+        <v>10</v>
+      </c>
+      <c r="I59" t="s">
+        <v>10</v>
+      </c>
+      <c r="J59" t="s">
         <v>133</v>
       </c>
-      <c r="H59" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
+      <c r="K59" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="13"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E60" s="8">
         <v>2</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="F60" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G60" s="1" t="s">
+      <c r="G60" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I60" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J60" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="H60" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
+      <c r="K60" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A61" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E61" s="8">
         <v>3</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="F61" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I61" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J61" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G61" s="1" t="s">
+      <c r="K61" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="H61" s="1" t="s">
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="5" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
+      <c r="B62" s="14"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="E62" s="8">
+        <v>2</v>
+      </c>
+      <c r="F62" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="B62">
+      <c r="G62" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H62" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I62" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J62" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K62" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B63" s="14"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E63" s="8">
         <v>2</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
+      <c r="F63" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="B63">
+      <c r="G63" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H63" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I63" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J63" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K63" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A64" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="E64" s="8">
+        <v>1</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H64" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I64" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J64" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K64" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B65" s="14"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="8">
+        <v>1</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H65" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I65" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J65" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="K65" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B66" s="14"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="8">
+        <v>1</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H66" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I66" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J66" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="K66" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A67" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B67" s="11"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="E67" s="8">
         <v>2</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B64">
+      <c r="F67" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H67" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I67" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J67" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="K67" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="216" x14ac:dyDescent="0.3">
+      <c r="A68" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E68" s="8">
+        <v>2</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H68" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I68" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J68" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K68" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B69" s="14"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="E69" s="8">
         <v>1</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B65">
+      <c r="F69" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I69" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J69" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K69" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B70" s="13"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E70" s="8">
         <v>1</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B66">
+      <c r="F70" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="G70" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I70" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J70" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="K70" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A71" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="E71" s="8">
         <v>1</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B67">
-        <v>2</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B68">
-        <v>2</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B69">
-        <v>1</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B70">
-        <v>1</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
+      <c r="F71" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="B71">
-        <v>1</v>
-      </c>
-      <c r="C71" s="1" t="s">
+      <c r="G71" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H71" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I71" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J71" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G71" s="1" t="s">
+      <c r="K71" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="H71" s="1" t="s">
-        <v>172</v>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" s="2"/>
+      <c r="B73" s="3"/>
+      <c r="C73" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" s="2"/>
+      <c r="B74" s="4"/>
+      <c r="C74" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B75" s="11"/>
+      <c r="C75" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B71" r:id="rId1" xr:uid="{189CC66B-0F57-4DF7-98EC-F80F15C4B023}"/>
+    <hyperlink ref="B68" r:id="rId2" display="https://eu.mouser.com/ProductDetail/Texas-Instruments/OPA2277MDTEP?qs=bjKSiFBd6qm8ryeDu2ltUQ%3D%3D&amp;utm_id=22436684815&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_marketing_tactic=emeacorp&amp;gad_source=1&amp;gad_campaignid=22426729329&amp;gbraid=0AAAAADn_wf153vZWvo_kngdRS3sU_b4Lf&amp;gclid=Cj0KCQjwsPzHBhDCARIsALlWNG3UhGC_JkRyvBL3_Giv_3ZrCtS8mk0yRm4JBo-I3U-9-CINgakXl-UaAncSEALw_wcB" xr:uid="{05F2D30D-7957-4D6C-A428-4FD67D5877ED}"/>
+    <hyperlink ref="B64" r:id="rId3" xr:uid="{309B59B3-D6D0-41AA-A6EF-3227D5260B14}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
